--- a/biology/Botanique/Sagina_abyssinica/Sagina_abyssinica.xlsx
+++ b/biology/Botanique/Sagina_abyssinica/Sagina_abyssinica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sagina abyssinica est une espèce de plantes dicotylédones de la famille des Caryophyllaceae, originaire d'Afrique équatoriale. Ce sont des plantes herbacées vivaces poussant en coussinets plus ou moins denses[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sagina abyssinica est une espèce de plantes dicotylédones de la famille des Caryophyllaceae, originaire d'Afrique équatoriale. Ce sont des plantes herbacées vivaces poussant en coussinets plus ou moins denses.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de répartition de  Sagina abyssinica comprend les pays suivants : Cameroun, République démocratique du Congo, Éthiopie, îles du golfe de Guinée (Bioko), Kenya, Ouganda, Rwanda, Soudan, Tanzanie[3].
-Cette espèce se rencontre sur les rives des cours d'eau, dans les landes, les crevasses rocheuses, les prairies, à des altitudes comprises entre 2100 et 4350 mètres[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de répartition de  Sagina abyssinica comprend les pays suivants : Cameroun, République démocratique du Congo, Éthiopie, îles du golfe de Guinée (Bioko), Kenya, Ouganda, Rwanda, Soudan, Tanzanie.
+Cette espèce se rencontre sur les rives des cours d'eau, dans les landes, les crevasses rocheuses, les prairies, à des altitudes comprises entre 2100 et 4350 mètres.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (22 avril 2019)[5] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (22 avril 2019) :
 Sagina abyssinica subsp. abyssinica
 Sagina abyssinica subsp. aequinoctialis Hedberg</t>
         </is>
